--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2228041.028214233</v>
+        <v>2216888.008404433</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1910744.735791026</v>
+        <v>2345916.138261949</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2235377.592553674</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9548051.809278069</v>
+        <v>9928833.713545773</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0211364340543</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
-        <v>326.3496050441493</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.0669638920415</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>179.8155849511185</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>127.4273634568048</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>217.5839986389673</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6578001319513</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6128613293336</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.78751576638862</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.58322759778523</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4008078539121</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.896269118392</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>76.14318635909297</v>
       </c>
       <c r="Y3" t="n">
-        <v>82.42752853015456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.1622015898241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71501393008706</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.02350464495129</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>64.82958737866599</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>69.40990664858337</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>42.82085193949036</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>14.77699516265576</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>84.32997412480735</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>120.7638961374817</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231963</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>83.90832503207787</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>156.7170857423792</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>34.12712969968886</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>225.4851313713316</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>30.54110646053125</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>76.00008775758468</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634817</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>140.3466251030344</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938904</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664346</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958671</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183517</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>28.06031580510796</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.79825004194821</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710087</v>
       </c>
       <c r="D14" t="n">
-        <v>264.5413585348002</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958668</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183511</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>118.4898845065125</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>145.7627116979853</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896926</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>81.77913505274024</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.142837397525431</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664345</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958668</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183511</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.12040312879401</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>194.957641979051</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>213.918963367548</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664345</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958668</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183511</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>135.5947476878474</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>2.454476553030319</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896923</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002174</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>180.6645312963735</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>66.14085215535397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>95.77370907116969</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>36.88234405457748</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>33.35146980185877</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>134.7660731567842</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>265.041326752187</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.43762907261482</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274103</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>155.8385935972304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1369.994009717156</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="C2" t="n">
-        <v>1369.994009717156</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="D2" t="n">
-        <v>1369.994009717156</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="E2" t="n">
-        <v>1369.994009717156</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="F2" t="n">
-        <v>959.0081049275482</v>
+        <v>40.56170762187429</v>
       </c>
       <c r="G2" t="n">
-        <v>540.8049368123418</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H2" t="n">
-        <v>211.1588711111809</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I2" t="n">
-        <v>48.46496818992675</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J2" t="n">
-        <v>144.3217185866811</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K2" t="n">
-        <v>408.7309433799496</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L2" t="n">
-        <v>789.030594941227</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M2" t="n">
-        <v>1228.793778674162</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N2" t="n">
-        <v>1661.040792932337</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O2" t="n">
-        <v>2024.011753583425</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P2" t="n">
-        <v>2296.124687961627</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q2" t="n">
-        <v>2423.248409496337</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>2423.248409496337</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S2" t="n">
-        <v>2241.616505505309</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T2" t="n">
-        <v>2241.616505505309</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U2" t="n">
-        <v>2112.901996963082</v>
+        <v>799.0911139693611</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.901996963082</v>
+        <v>579.3092971623234</v>
       </c>
       <c r="W2" t="n">
-        <v>1760.133341692967</v>
+        <v>579.3092971623234</v>
       </c>
       <c r="X2" t="n">
-        <v>1760.133341692967</v>
+        <v>313.4082527667006</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.994009717156</v>
+        <v>313.4082527667006</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.7942960984245</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C3" t="n">
-        <v>814.3412668172975</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4068571560463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1694021505908</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6348441774758</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5966622260098</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H3" t="n">
-        <v>114.917004317592</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I3" t="n">
-        <v>48.46496818992675</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>111.8632123587492</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>153.864845912206</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L3" t="n">
-        <v>531.2268878163885</v>
+        <v>394.9337607940759</v>
       </c>
       <c r="M3" t="n">
-        <v>1023.569813341244</v>
+        <v>456.2953932224767</v>
       </c>
       <c r="N3" t="n">
-        <v>1544.650604480102</v>
+        <v>716.9050068346266</v>
       </c>
       <c r="O3" t="n">
-        <v>1954.922048725379</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="P3" t="n">
-        <v>2267.197985224258</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q3" t="n">
-        <v>2423.248409496337</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>2365.083533134938</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>2365.083533134938</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T3" t="n">
-        <v>2165.688777726946</v>
+        <v>580.4293576557594</v>
       </c>
       <c r="U3" t="n">
-        <v>1937.510728112409</v>
+        <v>352.2090288979642</v>
       </c>
       <c r="V3" t="n">
-        <v>1702.358619880666</v>
+        <v>352.2090288979642</v>
       </c>
       <c r="W3" t="n">
-        <v>1448.121263152464</v>
+        <v>97.9716721697626</v>
       </c>
       <c r="X3" t="n">
-        <v>1240.269762946931</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.009633118493</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.2702363918573</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="C4" t="n">
-        <v>241.2702363918573</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="D4" t="n">
-        <v>241.2702363918573</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="E4" t="n">
-        <v>241.2702363918573</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="F4" t="n">
-        <v>241.2702363918573</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="G4" t="n">
-        <v>241.2702363918573</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="H4" t="n">
-        <v>241.2702363918573</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="I4" t="n">
-        <v>101.7124570081965</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="J4" t="n">
-        <v>48.46496818992675</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K4" t="n">
-        <v>92.54111321697158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L4" t="n">
-        <v>204.4698385689392</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M4" t="n">
-        <v>332.8721089817792</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N4" t="n">
-        <v>463.6558768192407</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O4" t="n">
-        <v>568.4395588688686</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P4" t="n">
-        <v>634.5794185738858</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q4" t="n">
-        <v>596.1718381244401</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R4" t="n">
-        <v>530.6874064288179</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S4" t="n">
-        <v>530.6874064288179</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>530.6874064288179</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U4" t="n">
-        <v>530.6874064288179</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
-        <v>530.6874064288179</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W4" t="n">
-        <v>241.2702363918573</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>241.2702363918573</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y4" t="n">
-        <v>241.2702363918573</v>
+        <v>112.3979106539025</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1964.838184214438</v>
+        <v>823.3449470454193</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>454.3824301050076</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>96.11673149825708</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>52.86334570079207</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>45.91784495158859</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>30.99158721153227</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>30.99158721153227</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>30.99158721153227</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>63.3372984893175</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>232.5599391817355</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>494.7722161923808</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>803.1404427365662</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1101.866392029479</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>1338.757197245509</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>1503.263635927378</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>1549.579360576613</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>1549.579360576613</v>
       </c>
       <c r="S5" t="n">
-        <v>2556.938609503456</v>
+        <v>1549.579360576613</v>
       </c>
       <c r="T5" t="n">
-        <v>2338.303942475518</v>
+        <v>1549.579360576613</v>
       </c>
       <c r="U5" t="n">
-        <v>2338.303942475518</v>
+        <v>1549.579360576613</v>
       </c>
       <c r="V5" t="n">
-        <v>2338.303942475518</v>
+        <v>1549.579360576613</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.303942475518</v>
+        <v>1196.810705306499</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.838184214438</v>
+        <v>823.3449470454193</v>
       </c>
       <c r="Y5" t="n">
-        <v>1964.838184214438</v>
+        <v>823.3449470454193</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>476.3627596261143</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>301.9097303449872</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>152.975320683736</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>30.99158721153227</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>30.99158721153227</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>30.99158721153227</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>30.99158721153227</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>30.99158721153227</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>56.5630915752723</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>226.8897086170038</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>441.7730766294458</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>825.2939683721576</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1208.814860114869</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>1208.814860114869</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>1444.636565258024</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>1549.579360576613</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>1549.579360576613</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>1549.579360576613</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>1549.579360576613</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>1549.579360576613</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1314.427252344871</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1060.189895616669</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>852.3383954111362</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>644.5780966461823</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444.0275768541695</v>
+        <v>177.8815347094426</v>
       </c>
       <c r="C7" t="n">
-        <v>444.0275768541695</v>
+        <v>177.8815347094426</v>
       </c>
       <c r="D7" t="n">
-        <v>444.0275768541695</v>
+        <v>177.8815347094426</v>
       </c>
       <c r="E7" t="n">
-        <v>444.0275768541695</v>
+        <v>177.8815347094426</v>
       </c>
       <c r="F7" t="n">
-        <v>444.0275768541695</v>
+        <v>30.99158721153227</v>
       </c>
       <c r="G7" t="n">
-        <v>275.0277765925019</v>
+        <v>30.99158721153227</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>30.99158721153227</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>30.99158721153227</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>30.99158721153227</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>36.06994770177002</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>98.09493531391428</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>173.8807113004503</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>253.2990873454177</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>310.6385163451022</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.1816213179065</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>336.1816213179065</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>336.1816213179065</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>336.1816213179065</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>336.1816213179065</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>336.1816213179065</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>336.1816213179065</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>336.1816213179065</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>336.1816213179065</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541695</v>
+        <v>177.8815347094426</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1825.581288436855</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C8" t="n">
-        <v>1456.618771496444</v>
+        <v>1039.683096047709</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>681.4173974409589</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>295.6291448427147</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2212.181128500977</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>2212.181128500977</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4895,19 +4895,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511404</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>473.7976410825387</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>246.4894537511404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>246.4894537511404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>246.4894537511404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>246.4894537511404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>246.4894537511404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.4894537511404</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1865.553283416332</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>1496.59076647592</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.32506786917</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>752.5368152709252</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>752.5368152709252</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>335.4490335073527</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>193.6847657265099</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266206</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>262.631694140357</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604022</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406601</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.629876389912</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449759</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216836</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.41379555613</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.58975633103</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.58975633103</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.58975633103</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.58975633103</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>3699.58975633103</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3368.526868987459</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3015.758213717345</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.292455456265</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2252.153123480453</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266206</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835162</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>522.0794512893258</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.440991155444</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1205.938327510049</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1452.219619273624</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.655628026346</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2425.623396507183</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.33685256765</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.9917951266206</v>
+        <v>534.1020230870773</v>
       </c>
       <c r="C13" t="n">
-        <v>73.9917951266206</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D13" t="n">
-        <v>73.9917951266206</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E13" t="n">
-        <v>73.9917951266206</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>73.9917951266206</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>73.9917951266206</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>73.9917951266206</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266206</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266206</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>175.0397247222303</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230485</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422863</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783905</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669892</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165605</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1050.897941190057</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>843.4576564424627</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>617.8284597548277</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>328.6762833325075</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>73.9917951266206</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>73.9917951266206</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X13" t="n">
-        <v>73.9917951266206</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.9917951266206</v>
+        <v>534.1020230870773</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1240.846680926024</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>871.8841639856125</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>604.6706705161174</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>604.6706705161174</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>193.6847657265099</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>193.6847657265099</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>193.6847657265099</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403566</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604017</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406601</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389912</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449759</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216837</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556131</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331032</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331032</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.37471882786</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>3328.574857095572</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>3074.883153840723</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>2743.820266497152</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>2391.051611227037</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>2017.585852965958</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>1627.446520990146</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363042</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835163</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893261</v>
+        <v>485.5200852635867</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155445</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1205.938327510049</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273623</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026346</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507182</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.33685256765</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.99179512662064</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="C16" t="n">
-        <v>73.99179512662064</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="D16" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662064</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222304</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230487</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422867</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783909</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669898</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165605</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>943.4485153053679</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>736.0082305577732</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>510.3790338701382</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>221.226857447818</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>221.226857447818</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W16" t="n">
-        <v>221.226857447818</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X16" t="n">
-        <v>73.99179512662064</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.99179512662064</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2134.774920425096</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>1765.812403484685</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1407.546704877934</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1021.75845227969</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>610.7725474900824</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>193.6847657265099</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>193.6847657265099</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403568</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604023</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406601</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389913</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.93754444976</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216837</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556131</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331032</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331032</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331032</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>3484.789894598744</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>3231.098191343895</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>2900.035304000324</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>2900.035304000324</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>2526.569545739244</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2521.374760489218</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363042</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835163</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>522.0794512893261</v>
+        <v>485.5200852635867</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.440991155445</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1253.562877620958</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N18" t="n">
-        <v>1452.219619273623</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.655628026346</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
-        <v>2425.623396507182</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.33685256765</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662064</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>175.0397247222304</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230487</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422867</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783909</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669898</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165605</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1020.269503728598</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1020.269503728598</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>731.1173273062773</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>476.4328391003904</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W19" t="n">
-        <v>476.4328391003904</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X19" t="n">
-        <v>476.4328391003904</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>255.6402599568603</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2333.305065052698</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>1964.342548112286</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1606.076849505535</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1220.288596907291</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>809.3026921176836</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>392.2149103541111</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>73.99179512662064</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>262.631694140357</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604024</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406602</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.629876389914</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.93754444976</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216837</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556131</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331032</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331032</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331032</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331032</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331032</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3699.589756331032</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3483.509995353711</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3110.044237092631</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2719.904905116819</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363042</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835163</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893261</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.440991155445</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1253.562877620958</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1452.219619273623</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.655628026346</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2425.623396507182</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.33685256765</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.99179512662064</v>
+        <v>234.1814830641721</v>
       </c>
       <c r="C22" t="n">
-        <v>73.99179512662064</v>
+        <v>234.1814830641721</v>
       </c>
       <c r="D22" t="n">
-        <v>73.99179512662064</v>
+        <v>234.1814830641721</v>
       </c>
       <c r="E22" t="n">
-        <v>73.99179512662064</v>
+        <v>234.1814830641721</v>
       </c>
       <c r="F22" t="n">
-        <v>73.99179512662064</v>
+        <v>234.1814830641721</v>
       </c>
       <c r="G22" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>73.99179512662064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>73.99179512662064</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>175.0397247222304</v>
+        <v>259.7851881688035</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230487</v>
+        <v>507.4972331799328</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422867</v>
+        <v>779.0639759471155</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783909</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669898</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P22" t="n">
-        <v>1070.508157165605</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q22" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R22" t="n">
-        <v>1073.926476585965</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S22" t="n">
-        <v>1073.926476585965</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="T22" t="n">
-        <v>848.2972798983302</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="U22" t="n">
-        <v>559.14510347601</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="V22" t="n">
-        <v>304.4606152701232</v>
+        <v>933.2366688293897</v>
       </c>
       <c r="W22" t="n">
-        <v>301.981346024638</v>
+        <v>643.8194987924292</v>
       </c>
       <c r="X22" t="n">
-        <v>73.99179512662064</v>
+        <v>415.8299478944118</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.99179512662064</v>
+        <v>415.8299478944118</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6010,25 +6010,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6068,28 +6068,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>261.8048459311029</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.25603081147</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>3803.838860774509</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>3575.849309876492</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,19 +6211,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
@@ -6247,13 +6247,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,46 +6390,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.60808497467</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980067</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473458</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.210845262964</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.210845262964</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1075.210845262964</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6466,19 +6466,19 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6551,13 +6551,13 @@
         <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1096.475226584133</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C31" t="n">
-        <v>927.5390436562259</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>777.4224042438901</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>629.509310661497</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>164.0260330313505</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="Y31" t="n">
-        <v>1278.123691414372</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>134.4719844447075</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954967</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="35">
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.6350999123426</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C37" t="n">
-        <v>247.6350999123426</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D37" t="n">
-        <v>247.6350999123426</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123426</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>233.3444380833002</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>696.41722995389</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>696.41722995389</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>696.41722995389</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>468.4276790558727</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.6350999123426</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="38">
@@ -7171,34 +7171,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7390,67 +7390,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>261.8048459311029</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>410.8745301331628</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L42" t="n">
-        <v>1024.771599890051</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1098.712528333286</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.712528333286</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.712528333286</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,43 +7627,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155891</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
@@ -7681,13 +7681,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028587</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>1341.503549752619</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>69.53906855840471</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>191.5731872550927</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>294.5310680336918</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>458.254640518495</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>445.575901800904</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>75.66854239734703</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>48.10560617263718</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231143</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>48.10560617263508</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231143</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>48.10560617263522</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,19 +9485,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>48.10560617263522</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>124.3400780863227</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P30" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814685</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814685</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>124.3400780863227</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>96.03744927814685</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>174.6942589721812</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>139.1865052935199</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176906</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>106.3749316258432</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>90.14168308588279</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>30.12558851169983</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>17.695841881769</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>79.94694369105181</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>381.0951012585281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>123.266557879417</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
-        <v>17.695841881769</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677913</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2454787713246</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>30.75201340998615</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>135.322005349865</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>30.89882077553023</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>123.266557879417</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
-        <v>17.695841881769</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>284.0685217835607</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518774</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>105.8584670402175</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>44.27839330891801</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>190.7492892654213</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>111.7331289636349</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>14.14775521075197</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>21.1960256463903</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>181.14702427948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>891397.7923701496</v>
+        <v>891000.6003124078</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>891477.8121394067</v>
+        <v>891142.5509617924</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734165.4129034159</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734165.4129034161</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>734165.4129034161</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734165.4129034161</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583919</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>455943.1351859869</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
-        <v>455943.1351859869</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
-        <v>455943.135185987</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
-        <v>455943.135185987</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.230645907</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.230645907</v>
       </c>
       <c r="M2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="N2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459072</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>510219.7254915893</v>
+        <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>75798.11511817027</v>
+        <v>138241.1818300971</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>300621.897413352</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188438</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
-        <v>5.223239440965699e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990979</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158507.1017135649</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
-        <v>17623.31765048118</v>
+        <v>31952.95942414791</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>72609.89266179925</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.0558896532</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169767.2189100003</v>
+        <v>279327.2236236408</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>239463.3485659251</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>8673.279618076547</v>
+        <v>7916.731656007431</v>
       </c>
       <c r="F4" t="n">
-        <v>8673.279618076545</v>
+        <v>7916.731656007432</v>
       </c>
       <c r="G4" t="n">
-        <v>8673.279618076545</v>
+        <v>7916.731656007431</v>
       </c>
       <c r="H4" t="n">
-        <v>8673.279618076545</v>
+        <v>7916.731656007432</v>
       </c>
       <c r="I4" t="n">
+        <v>7916.731656007448</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007485</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
@@ -26459,7 +26459,7 @@
         <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77410.77808677478</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>60032.17562267159</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360147</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360151</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360151</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360151</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-203194.5278299725</v>
+        <v>114347.108752968</v>
       </c>
       <c r="C6" t="n">
-        <v>247628.9527608904</v>
+        <v>116466.4886396977</v>
       </c>
       <c r="D6" t="n">
-        <v>323427.0678790607</v>
+        <v>22805.17046570891</v>
       </c>
       <c r="E6" t="n">
-        <v>129951.5436654651</v>
+        <v>-98149.45469543511</v>
       </c>
       <c r="F6" t="n">
-        <v>378098.3122843083</v>
+        <v>427010.5817814614</v>
       </c>
       <c r="G6" t="n">
-        <v>378098.312284309</v>
+        <v>427010.5817814611</v>
       </c>
       <c r="H6" t="n">
-        <v>378098.3122843089</v>
+        <v>427010.5817814613</v>
       </c>
       <c r="I6" t="n">
-        <v>172453.0134420854</v>
+        <v>427010.5817814614</v>
       </c>
       <c r="J6" t="n">
-        <v>269478.071327618</v>
+        <v>358134.8830502114</v>
       </c>
       <c r="K6" t="n">
-        <v>410361.855390702</v>
+        <v>395057.6223573133</v>
       </c>
       <c r="L6" t="n">
-        <v>427985.1730411832</v>
+        <v>354400.6891196619</v>
       </c>
       <c r="M6" t="n">
-        <v>365532.1171515298</v>
+        <v>292209.566547624</v>
       </c>
       <c r="N6" t="n">
-        <v>427985.1730411829</v>
+        <v>427010.5817814613</v>
       </c>
       <c r="O6" t="n">
-        <v>427985.1730411832</v>
+        <v>427010.5817814614</v>
       </c>
       <c r="P6" t="n">
-        <v>427985.1730411832</v>
+        <v>427010.5817814614</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>318.7982689188285</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>130.7784101792233</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380645</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>593.476100338065</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>593.476100338065</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>593.476100338065</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>605.8121023740844</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>387.3948401441533</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827575</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827581</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827581</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827581</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>318.7982689188285</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>58.94539529825823</v>
+        <v>107.765027492434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>246.9652540378634</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209778</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160354</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>605.8121023740844</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>68.47517038047124</v>
+        <v>124.1528061924867</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>286.8924326104023</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282019</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708152</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>605.8121023740842</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>68.47517038047147</v>
+        <v>124.1528061924867</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>286.892432610402</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282018</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>605.8121023740844</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>68.47517038047124</v>
+        <v>124.1528061924867</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>286.8924326104023</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282019</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.36374403171305</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>217.4856408317005</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>123.8157613645452</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>110.1682598311676</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>158.946278001279</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27517,16 +27517,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>129.6297988443845</v>
       </c>
       <c r="Y3" t="n">
-        <v>123.2551672471498</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4160972341789</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1159478024787</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>86.61501321042931</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>213.9979704711133</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>225.4892748972676</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.287672149712</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>149.1747467035114</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>339.1095181327714</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.0905432484386</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>190.2072075264481</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>116.8439548922225</v>
       </c>
       <c r="S5" t="n">
-        <v>90.08573868416416</v>
+        <v>197.0397157291235</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>220.7944124161533</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3035935196382</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>36.88118431791929</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0622202054666</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.5187078288111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>79.71162794663297</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.69274760078383</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.4582034896019</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.0309045537395</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9228757021759</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.7551494384634</v>
       </c>
       <c r="H7" t="n">
-        <v>72.26256380971728</v>
+        <v>160.1304301278448</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>148.3584260604899</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>76.6860047730036</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>66.41450331463167</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>166.6896206108344</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>219.9067257039629</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>226.9379524973924</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3061659063093</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>61.86756760971559</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>320.5559119209941</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>181.3909143703798</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>136.1454511924342</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-7.034332060107839e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28985,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-2.333053466602434e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-6.217746946403958e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.281601081080716</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H2" t="n">
-        <v>13.12519707161789</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I2" t="n">
-        <v>49.40892567836437</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>108.7742897553746</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K2" t="n">
-        <v>163.0244635175213</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L2" t="n">
-        <v>202.2462626026453</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M2" t="n">
-        <v>225.0379358283145</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N2" t="n">
-        <v>228.6792848999351</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O2" t="n">
-        <v>215.9353641499387</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P2" t="n">
-        <v>184.2958374607585</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>138.3984987445553</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>80.50537390943663</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S2" t="n">
-        <v>29.20448463512686</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T2" t="n">
-        <v>5.610208732430839</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1025280864864573</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6857170312593669</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H3" t="n">
-        <v>6.622582907162834</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I3" t="n">
-        <v>23.60911708502645</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>64.7852217998159</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K3" t="n">
-        <v>110.7282628941935</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
-        <v>148.8878141776095</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M3" t="n">
-        <v>173.7450565607615</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>178.3435712133737</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
-        <v>163.1495254154688</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P3" t="n">
-        <v>130.9418776621505</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.53117753409042</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
-        <v>42.5746065548579</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>12.73689310255885</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
-        <v>2.763920840909464</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04511296258285311</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5748821242798545</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>5.111224704960892</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
-        <v>17.28827333743418</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J4" t="n">
-        <v>40.64416618658571</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>66.79085043905945</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>85.46929327702493</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>90.11538608143209</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>87.97264361820726</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O4" t="n">
-        <v>81.25697516639256</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>69.52937983108347</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.1385386067431</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
-        <v>25.84879078807418</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>10.01862756585892</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
-        <v>2.456314531013923</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03135720677890119</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>0.5257423524792892</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>5.384258867328523</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>20.26868204395782</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>44.62172498873912</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>66.87639876918745</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>82.96608628887552</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>92.31575684977906</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>93.80952230876086</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>88.58167179129492</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>75.60240746446244</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>56.77425946629788</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>33.02516304892718</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>11.98035385712182</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>2.30143714797809</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.04205938819834313</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.2812969577439898</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>2.716736407685375</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>9.685004904782105</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>26.57639371387405</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>45.42328988272136</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>61.07721882945708</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>71.27423354767669</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>73.16065042658266</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>66.92770204709741</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>53.71538134323608</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>35.90730990430298</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>17.4650865518593</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>5.224967614235946</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>1.133824141082134</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0185063787989467</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.2358299199953207</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>2.096742379594762</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>7.092048866768373</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>16.67317534366917</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>27.39914888672907</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>35.06147737821341</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>36.96741191344831</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>36.08840948437487</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>33.3334872371568</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>28.52255686925223</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>19.74753993706272</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>10.60377076633505</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>4.10987233300936</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>1.007636930889097</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.01286345018156296</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198248</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055156</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651553</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937399</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779018</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712527</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074821</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359666</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822515</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426697</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457574</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411495</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810512</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916533</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840365</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>12.328626159853</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182837</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>120.6044214847382</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070427</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512819</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842451</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>332.005087490065</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947074</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671571</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607456</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080797</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784624</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308312</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888313</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838207007</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784128</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490372</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.338107579024</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889952</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676925</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441089</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714136</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720919</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104774</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937813</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685359</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>4.57268470752279</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198249</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055157</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651559</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937401</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779021</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>376.502430971253</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074824</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335967</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822518</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>343.08584954267</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457576</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810516</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916534</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840366</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985301</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9508244118284</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847383</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070428</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512822</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842453</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900653</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947077</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671573</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607457</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080802</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784626</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308316</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888314</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207014</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>32.1839170478413</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490378</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790241</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889953</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676927</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441091</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714137</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>129.436164572092</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510478</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937817</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685361</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522794</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198249</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055157</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651559</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937401</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779021</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>376.502430971253</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074824</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>425.710248335967</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822518</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>343.08584954267</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457576</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810516</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916534</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840366</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985301</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>43.9508244118284</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>120.6044214847383</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070428</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512822</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842453</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900653</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947077</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671573</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607457</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080802</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784626</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308316</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888314</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838207014</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>32.1839170478413</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490378</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790241</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889953</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676927</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441091</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714137</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>129.436164572092</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.6148911510478</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937817</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685361</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522794</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198249</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055157</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651559</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937401</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779021</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>376.502430971253</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074824</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335967</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822518</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>343.08584954267</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.6431848457576</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810516</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916534</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840366</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985301</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118284</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>120.6044214847383</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070428</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512822</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842453</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900653</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947077</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671573</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607457</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080802</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784626</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308316</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888314</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838207014</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>32.1839170478413</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490378</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790241</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889953</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676927</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441091</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714137</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>129.436164572092</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510478</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937817</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685361</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522794</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.82500040076204</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>267.0800250437055</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L2" t="n">
-        <v>384.1410621831085</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M2" t="n">
-        <v>444.2052360938743</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N2" t="n">
-        <v>436.6131457153284</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O2" t="n">
-        <v>366.6373339909974</v>
+        <v>166.2898937894758</v>
       </c>
       <c r="P2" t="n">
-        <v>274.8615498769716</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q2" t="n">
-        <v>128.4077995300105</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>64.03863047355804</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>42.42589247823919</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>381.1737797011945</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>497.3160863887431</v>
+        <v>61.98144689737455</v>
       </c>
       <c r="N3" t="n">
-        <v>526.3442334735939</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>414.4156002477538</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>315.4302388877575</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.626691183918</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.5213586131766</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>113.0593185373411</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M4" t="n">
-        <v>129.6992630432727</v>
+        <v>46.08911889082925</v>
       </c>
       <c r="N4" t="n">
-        <v>132.1048159974358</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O4" t="n">
-        <v>105.8421030804322</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P4" t="n">
-        <v>66.80793909597696</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>32.6724356341266</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>170.9319602953717</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>264.8608858693387</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>311.4830571153389</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>301.7433831241541</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>239.2836416323536</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>166.1681198806755</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>46.78356025175308</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>25.8298023876162</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>172.047087920941</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>217.0539070832747</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>387.3948401441533</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>387.3948401441533</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>238.203742568843</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>106.0028235541306</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>5.129657060846217</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>62.65150263852955</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>76.55128887528889</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>80.22058186360346</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>57.91861515119647</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>25.80111613414572</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391274</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>407.542538404086</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517159</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730419</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513599</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233101</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588828</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312126</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584804</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452622</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748669</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3104407622268</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>248.7689815793688</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269925</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>428.250271192764</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105732</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531411</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493113</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295331</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233375</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854533</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369854</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353358</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391276</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040863</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517162</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730421</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513602</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233105</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588831</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312128</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584804</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>350.3150673110537</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748672</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>181.310440762227</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>248.768981579367</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269927</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927642</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105733</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531412</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493115</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295333</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233377</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854534</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369855</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353415</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391276</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040863</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517162</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730421</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513602</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233105</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588831</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312128</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584804</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>332.7559639452625</v>
+        <v>350.3150673110537</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748672</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>229.4160469348622</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6633754067319</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269927</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927642</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105733</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531412</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493115</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295333</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233377</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854534</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369855</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353415</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391276</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040863</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517162</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730421</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513602</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233105</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588831</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312128</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584804</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>332.7559639452625</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748672</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>229.4160469348622</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>200.6633754067319</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269927</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927642</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105733</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531412</v>
+        <v>151.7024285299068</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493115</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295333</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233377</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854534</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369855</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353415</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>166.2502570412294</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36451,16 +36451,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056071</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36919,16 +36919,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P30" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>166.2502570412294</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9476282330535</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
